--- a/patient_data/patient_90.xlsx
+++ b/patient_data/patient_90.xlsx
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1564,16 +1564,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1641,16 +1641,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
